--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3778.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3778.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.57950060839139</v>
+        <v>4.002847671508789</v>
       </c>
       <c r="B1">
-        <v>2.644691337198083</v>
+        <v>4.287489891052246</v>
       </c>
       <c r="C1">
-        <v>2.977426334950902</v>
+        <v>3.759507179260254</v>
       </c>
       <c r="D1">
-        <v>3.510214438467222</v>
+        <v>1.776339888572693</v>
       </c>
       <c r="E1">
-        <v>2.458544715821431</v>
+        <v>0.7869437336921692</v>
       </c>
     </row>
   </sheetData>
